--- a/documentations/Documentation_Diagrams.xlsx
+++ b/documentations/Documentation_Diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="19155" windowHeight="8445" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="19155" windowHeight="8445" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entity_Relationship_Diagram" sheetId="5" r:id="rId1"/>
@@ -318,27 +318,12 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -349,6 +334,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,14 +520,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -537,7 +537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161926" y="333377"/>
-          <a:ext cx="9429749" cy="4886324"/>
+          <a:ext cx="9429749" cy="4400548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,13 +575,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -630,13 +630,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -685,13 +685,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -740,13 +740,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -795,13 +795,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -850,13 +850,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -905,14 +905,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -922,7 +922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2047875" y="857250"/>
-          <a:ext cx="0" cy="4352925"/>
+          <a:ext cx="0" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -954,14 +954,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -971,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3933825" y="857250"/>
-          <a:ext cx="0" cy="4352925"/>
+          <a:ext cx="0" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1003,14 +1003,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1020,7 +1020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5819775" y="857250"/>
-          <a:ext cx="0" cy="4352925"/>
+          <a:ext cx="0" cy="3876675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1052,14 +1052,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1069,7 +1069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7705725" y="857250"/>
-          <a:ext cx="0" cy="4352925"/>
+          <a:ext cx="0" cy="3876675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1101,13 +1101,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1155,13 +1155,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1280,13 +1280,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1429,13 +1429,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1523,13 +1523,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1605,13 +1605,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1699,13 +1699,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1781,13 +1781,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1875,13 +1875,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1993,13 +1993,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2045,13 +2045,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2108,13 +2108,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2158,13 +2158,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2208,13 +2208,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2258,13 +2258,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2308,13 +2308,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2358,13 +2358,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2407,13 +2407,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2459,13 +2459,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2523,13 +2523,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2575,13 +2575,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2626,13 +2626,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2678,13 +2678,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2730,13 +2730,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2788,13 +2788,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2846,13 +2846,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6986,6 +6986,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495532</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295274" y="133349"/>
+          <a:ext cx="7515458" cy="8543926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7299,176 +7342,176 @@
       </c>
     </row>
     <row r="6" spans="16:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="4" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="4" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="4" t="s">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="16:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="4" t="s">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="16:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="16:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="16:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="16:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="4" t="s">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7506,84 +7549,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="13:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="13:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="13:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="13:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="13:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="13:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="13:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M10" s="13"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="13:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="13:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M17" s="11"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" s="12"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="12"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="12"/>
+      <c r="M20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7596,7 +7639,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,7 +7653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
@@ -7625,10 +7668,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T48" sqref="T47:T48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>